--- a/cleaning_outputs/divided_database.xlsx
+++ b/cleaning_outputs/divided_database.xlsx
@@ -2983,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,11 +3017,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3041,11 +3036,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3063,11 +3053,6 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3089,11 +3074,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3113,11 +3093,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3137,11 +3112,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3161,11 +3131,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3185,11 +3150,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3209,11 +3169,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3233,11 +3188,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3257,11 +3207,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3281,11 +3226,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3305,11 +3245,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3329,11 +3264,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3353,11 +3283,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3377,11 +3302,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3401,11 +3321,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3425,11 +3340,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3449,11 +3359,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3473,11 +3378,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3497,11 +3397,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3521,11 +3416,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3545,11 +3435,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3569,11 +3454,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3593,11 +3473,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3617,11 +3492,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3641,11 +3511,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3665,11 +3530,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3689,11 +3549,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3713,11 +3568,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3737,11 +3587,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3761,11 +3606,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3785,11 +3625,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3809,11 +3644,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3833,11 +3663,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3857,11 +3682,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3881,11 +3701,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3905,11 +3720,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3929,11 +3739,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3953,11 +3758,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3977,11 +3777,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4001,11 +3796,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4025,11 +3815,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4049,11 +3834,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4073,11 +3853,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4097,11 +3872,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4121,11 +3891,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4145,11 +3910,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4169,11 +3929,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4193,11 +3948,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4217,11 +3967,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4241,11 +3986,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4265,11 +4005,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4289,11 +4024,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4313,11 +4043,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4337,11 +4062,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4361,11 +4081,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4385,11 +4100,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4409,11 +4119,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4431,11 +4136,6 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7336,183 +7036,168 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171.56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.56</v>
+        <v>0.171389</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.171389</v>
+        <v>40.534</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>0.25</v>
       </c>
       <c r="C5" t="n">
-        <v>40.534</v>
+        <v>72.6087</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="C6" t="n">
-        <v>72.6087</v>
+        <v>312.447</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="C7" t="n">
-        <v>312.447</v>
+        <v>271.102</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.881132</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>101.071</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="C10" t="n">
-        <v>271.102</v>
+        <v>115.156</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -7520,123 +7205,113 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>277.095</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C12" t="n">
-        <v>0.881132</v>
+        <v>247.688</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="C13" t="n">
-        <v>101.071</v>
+        <v>123.889</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>24</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C14" t="n">
+        <v>116.715</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="C15" t="n">
-        <v>115.156</v>
+        <v>18.4492</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="C16" t="n">
-        <v>277.095</v>
+        <v>134.474</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -7644,195 +7319,170 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>247.688</v>
+        <v>64.98990000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>176.708</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="C19" t="n">
-        <v>123.889</v>
+        <v>86.5074</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="C20" t="n">
-        <v>116.715</v>
+        <v>238.205</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C21" t="n">
+        <v>890.967</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="C22" t="n">
-        <v>18.4492</v>
+        <v>79.015</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="C23" t="n">
-        <v>134.474</v>
+        <v>34.0027</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="C24" t="n">
-        <v>64.98990000000001</v>
+        <v>322.187</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="C25" t="n">
-        <v>176.708</v>
+        <v>385.761</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -7840,223 +7490,208 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>0.57</v>
+        <v>0.87</v>
       </c>
       <c r="C26" t="n">
-        <v>86.5074</v>
+        <v>171.742</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>54</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>412.12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>55</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>53.2285</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B29" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="C29" t="n">
-        <v>238.205</v>
+        <v>37.906</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>890.967</v>
+        <v>0.0231096</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B31" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="C31" t="n">
-        <v>79.015</v>
+        <v>262.686</v>
       </c>
       <c r="D31" t="n">
         <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>65</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C32" t="n">
+        <v>119.821</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="C33" t="n">
-        <v>34.0027</v>
+        <v>179.317</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="C34" t="n">
-        <v>322.187</v>
+        <v>194.983</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>70</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80.4127</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="C36" t="n">
-        <v>385.761</v>
+        <v>139.722</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
@@ -8064,123 +7699,113 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>51</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>74</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>149.845</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>52</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>77</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46.5162</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
-        <v>0.87</v>
+        <v>0.11</v>
       </c>
       <c r="C39" t="n">
-        <v>171.742</v>
+        <v>84.3929</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="C40" t="n">
-        <v>412.12</v>
+        <v>22.3881</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B41" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="C41" t="n">
-        <v>53.2285</v>
+        <v>108.648</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B42" t="n">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="C42" t="n">
-        <v>37.906</v>
+        <v>103.013</v>
       </c>
       <c r="D42" t="n">
         <v>3</v>
@@ -8188,403 +7813,25 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0231096</v>
+        <v>571.927</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>58</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>60</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>262.686</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>65</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C46" t="n">
-        <v>119.821</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>66</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C47" t="n">
-        <v>179.317</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>67</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C48" t="n">
-        <v>194.983</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>70</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C49" t="n">
-        <v>80.4127</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>72</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C50" t="n">
-        <v>139.722</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>73</v>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>74</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C52" t="n">
-        <v>149.845</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>77</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>46.5162</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C54" t="n">
-        <v>84.3929</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>79</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>22.3881</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>80</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>108.648</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>81</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C57" t="n">
-        <v>103.013</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>83</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>84</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C59" t="n">
-        <v>571.927</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>86</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
     </row>
@@ -10718,7 +9965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10752,11 +9999,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -10776,11 +10018,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -10800,111 +10037,111 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0188651</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.22619</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.58112</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0188651</v>
+        <v>0.158273</v>
       </c>
       <c r="C7" t="n">
-        <v>8.68</v>
+        <v>100.47</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22619</v>
+        <v>0.452362</v>
       </c>
       <c r="C8" t="n">
-        <v>98.59</v>
+        <v>154.02</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0.58112</v>
+        <v>0.367611</v>
       </c>
       <c r="C9" t="n">
-        <v>20.22</v>
+        <v>103.97</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -10912,147 +10149,132 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.158273</v>
+        <v>0.0183783</v>
       </c>
       <c r="C10" t="n">
-        <v>100.47</v>
+        <v>5.26</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.452362</v>
+        <v>0.0177326</v>
       </c>
       <c r="C11" t="n">
-        <v>154.02</v>
+        <v>10.44</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.367611</v>
+        <v>0.642898</v>
       </c>
       <c r="C12" t="n">
-        <v>103.97</v>
+        <v>159.02</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.195459</v>
+      </c>
+      <c r="C13" t="n">
+        <v>115.19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.273818</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0183783</v>
+        <v>0.0645236</v>
       </c>
       <c r="C15" t="n">
-        <v>5.26</v>
+        <v>36.41</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0177326</v>
+        <v>0.0208346</v>
       </c>
       <c r="C16" t="n">
-        <v>10.44</v>
+        <v>13.76</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -11062,159 +10284,149 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.467161</v>
+      </c>
+      <c r="C17" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>0.642898</v>
+        <v>0.0176786</v>
       </c>
       <c r="C18" t="n">
-        <v>159.02</v>
+        <v>5.38</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195459</v>
+        <v>0.000899837</v>
       </c>
       <c r="C19" t="n">
-        <v>115.19</v>
+        <v>1.52</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>42</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.173819</v>
+      </c>
+      <c r="C20" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>0.273818</v>
+        <v>0.687011</v>
       </c>
       <c r="C21" t="n">
-        <v>18.75</v>
+        <v>18.59</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0645236</v>
+        <v>0.00290593</v>
       </c>
       <c r="C22" t="n">
-        <v>36.41</v>
+        <v>1.84</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>51</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.297743</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0208346</v>
+        <v>0.00595852</v>
       </c>
       <c r="C24" t="n">
-        <v>13.76</v>
+        <v>8.08</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -11224,111 +10436,111 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0522257</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>57</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.861229</v>
+      </c>
+      <c r="C26" t="n">
+        <v>168.71</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>0.467161</v>
+        <v>0.543692</v>
       </c>
       <c r="C27" t="n">
-        <v>54.22</v>
+        <v>132.57</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>66</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.000178344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0176786</v>
+        <v>0.447507</v>
       </c>
       <c r="C29" t="n">
-        <v>5.38</v>
+        <v>274.15</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B30" t="n">
-        <v>0.000899837</v>
+        <v>0.0147165</v>
       </c>
       <c r="C30" t="n">
-        <v>1.52</v>
+        <v>3.62</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -11338,21 +10550,16 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B31" t="n">
-        <v>0.173819</v>
+        <v>0.21587</v>
       </c>
       <c r="C31" t="n">
-        <v>36.35</v>
+        <v>29.89</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -11362,565 +10569,80 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>79</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.050501</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>83</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0432366</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>84</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0018898</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B35" t="n">
-        <v>0.687011</v>
+        <v>0.241936</v>
       </c>
       <c r="C35" t="n">
-        <v>18.59</v>
+        <v>38.95</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>50</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.00290593</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>51</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.297743</v>
-      </c>
-      <c r="C37" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>52</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>53</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>54</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.00595852</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>55</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>23</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0522257</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>57</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.861229</v>
-      </c>
-      <c r="C43" t="n">
-        <v>168.71</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>58</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.543692</v>
-      </c>
-      <c r="C44" t="n">
-        <v>132.57</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>60</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>65</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>66</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.000178344</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>67</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.447507</v>
-      </c>
-      <c r="C48" t="n">
-        <v>274.15</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>70</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>72</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0147165</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>73</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.21587</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>74</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>77</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>79</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.050501</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>80</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>81</v>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>83</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.0432366</v>
-      </c>
-      <c r="C58" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>84</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0018898</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>86</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.241936</v>
-      </c>
-      <c r="C60" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15084,7 +13806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15118,11 +13840,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -15142,11 +13859,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -15166,111 +13878,111 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.677390000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2262</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98.59229999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5810999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.2177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0189</v>
+        <v>0.1583</v>
       </c>
       <c r="C7" t="n">
-        <v>8.677390000000001</v>
+        <v>100.467</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2262</v>
+        <v>0.4524</v>
       </c>
       <c r="C8" t="n">
-        <v>98.59229999999999</v>
+        <v>154.016</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5810999999999999</v>
+        <v>0.3676</v>
       </c>
       <c r="C9" t="n">
-        <v>20.2177</v>
+        <v>103.973</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -15278,147 +13990,132 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1583</v>
+        <v>0.0184</v>
       </c>
       <c r="C10" t="n">
-        <v>100.467</v>
+        <v>5.26377</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4524</v>
+        <v>0.0177</v>
       </c>
       <c r="C11" t="n">
-        <v>154.016</v>
+        <v>10.4447</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3676</v>
+        <v>0.6429</v>
       </c>
       <c r="C12" t="n">
-        <v>103.973</v>
+        <v>159.022</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1955</v>
+      </c>
+      <c r="C13" t="n">
+        <v>115.194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2738</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.7532</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0184</v>
+        <v>0.0645</v>
       </c>
       <c r="C15" t="n">
-        <v>5.26377</v>
+        <v>36.4082</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0177</v>
+        <v>0.0208</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4447</v>
+        <v>13.7599</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -15428,159 +14125,149 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4672</v>
+      </c>
+      <c r="C17" t="n">
+        <v>54.2238</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6429</v>
+        <v>0.0177</v>
       </c>
       <c r="C18" t="n">
-        <v>159.022</v>
+        <v>5.37892</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1955</v>
+        <v>0.0009</v>
       </c>
       <c r="C19" t="n">
-        <v>115.194</v>
+        <v>1.51537</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>42</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1737999999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>36.3527</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2738</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>18.7532</v>
+        <v>18.5932</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0645</v>
+        <v>0.0029</v>
       </c>
       <c r="C22" t="n">
-        <v>36.4082</v>
+        <v>1.84173</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>51</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2977</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37.2926</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0208</v>
+        <v>0.006</v>
       </c>
       <c r="C24" t="n">
-        <v>13.7599</v>
+        <v>8.0794</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -15590,111 +14277,111 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0521999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.28686</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>57</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8612000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>168.707</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4672</v>
+        <v>0.5437</v>
       </c>
       <c r="C27" t="n">
-        <v>54.2238</v>
+        <v>132.57</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>66</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.07659000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0177</v>
+        <v>0.4475</v>
       </c>
       <c r="C29" t="n">
-        <v>5.37892</v>
+        <v>274.152</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0009</v>
+        <v>0.0147</v>
       </c>
       <c r="C30" t="n">
-        <v>1.51537</v>
+        <v>3.62434</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -15704,21 +14391,16 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1737999999999999</v>
+        <v>0.2159</v>
       </c>
       <c r="C31" t="n">
-        <v>36.3527</v>
+        <v>29.8881</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -15728,565 +14410,80 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>79</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0504999999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.40324</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>83</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.2605</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>84</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.90104</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.2419</v>
       </c>
       <c r="C35" t="n">
-        <v>18.5932</v>
+        <v>38.9532</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>50</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.84173</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>51</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.2977</v>
-      </c>
-      <c r="C37" t="n">
-        <v>37.2926</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>52</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>53</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>54</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8.0794</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>55</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>23</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0521999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.28686</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>57</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.8612000000000001</v>
-      </c>
-      <c r="C43" t="n">
-        <v>168.707</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>58</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5437</v>
-      </c>
-      <c r="C44" t="n">
-        <v>132.57</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>60</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>65</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>66</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.07659000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>67</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4475</v>
-      </c>
-      <c r="C48" t="n">
-        <v>274.152</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>70</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>72</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.62434</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>73</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2159</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.8881</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>74</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>77</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>79</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.0504999999999999</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9.40324</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>80</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>81</v>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>83</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.0432</v>
-      </c>
-      <c r="C58" t="n">
-        <v>14.2605</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>84</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.90104</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>86</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.2419</v>
-      </c>
-      <c r="C60" t="n">
-        <v>38.9532</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -33012,7 +31209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33046,292 +31243,62 @@
           <t>Percentage Of Exposed Areas</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Lowland</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lowland</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B7" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>36</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>42</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>46</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>49</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>57</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>58</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>63</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>67</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>73</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
         <v>84</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B4" t="n">
         <v>45.37</v>
       </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Upland</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E4" t="n">
         <v>0.155</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -33813,7 +31780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33847,11 +31814,6 @@
           <t>Percentage Of Exposed Areas</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -33871,11 +31833,6 @@
       <c r="E2" t="n">
         <v>0.9683</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -33894,11 +31851,6 @@
       </c>
       <c r="E3" t="n">
         <v>0.9519</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -33919,11 +31871,6 @@
       <c r="E4" t="n">
         <v>0.9355</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -33943,11 +31890,6 @@
       <c r="E5" t="n">
         <v>0.8267</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -33967,11 +31909,6 @@
       <c r="E6" t="n">
         <v>0.0045</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -33991,11 +31928,6 @@
       <c r="E7" t="n">
         <v>0.8587</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -34015,11 +31947,6 @@
       <c r="E8" t="n">
         <v>0.6897</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -34039,11 +31966,6 @@
       <c r="E9" t="n">
         <v>0.0194</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -34063,11 +31985,6 @@
       <c r="E10" t="n">
         <v>0.7004</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -34087,11 +32004,6 @@
       <c r="E11" t="n">
         <v>0.1342</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -34111,11 +32023,6 @@
       <c r="E12" t="n">
         <v>0.9837</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -34135,11 +32042,6 @@
       <c r="E13" t="n">
         <v>0.9292</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -34159,11 +32061,6 @@
       <c r="E14" t="n">
         <v>0.974</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -34183,11 +32080,6 @@
       <c r="E15" t="n">
         <v>0.9502</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -34207,11 +32099,6 @@
       <c r="E16" t="n">
         <v>0.9658</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -34231,11 +32118,6 @@
       <c r="E17" t="n">
         <v>0.9694</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -34255,11 +32137,6 @@
       <c r="E18" t="n">
         <v>0.8803</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -34278,11 +32155,6 @@
       </c>
       <c r="E19" t="n">
         <v>0.2766</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -35224,7 +33096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35258,11 +33130,6 @@
           <t>Percentage Of Exposed Areas</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -35282,11 +33149,6 @@
       <c r="E2" t="n">
         <v>0.9683</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -35305,11 +33167,6 @@
       </c>
       <c r="E3" t="n">
         <v>0.9519</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -35330,11 +33187,6 @@
       <c r="E4" t="n">
         <v>0.9355</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -35354,11 +33206,6 @@
       <c r="E5" t="n">
         <v>0.8267</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -35378,11 +33225,6 @@
       <c r="E6" t="n">
         <v>0.0045</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -35402,11 +33244,6 @@
       <c r="E7" t="n">
         <v>0.8587</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -35426,11 +33263,6 @@
       <c r="E8" t="n">
         <v>0.6897</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -35450,11 +33282,6 @@
       <c r="E9" t="n">
         <v>0.0194</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -35474,11 +33301,6 @@
       <c r="E10" t="n">
         <v>0.02</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -35498,11 +33320,6 @@
       <c r="E11" t="n">
         <v>0.1342</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -35522,11 +33339,6 @@
       <c r="E12" t="n">
         <v>0.9837</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -35546,11 +33358,6 @@
       <c r="E13" t="n">
         <v>0.9292</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -35570,11 +33377,6 @@
       <c r="E14" t="n">
         <v>0.974</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -35594,11 +33396,6 @@
       <c r="E15" t="n">
         <v>0.9502</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -35618,11 +33415,6 @@
       <c r="E16" t="n">
         <v>0.9658</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -35642,11 +33434,6 @@
       <c r="E17" t="n">
         <v>0.9694</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -35666,11 +33453,6 @@
       <c r="E18" t="n">
         <v>0.05</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -35689,11 +33471,6 @@
       </c>
       <c r="E19" t="n">
         <v>0.015</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -44966,7 +42743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45000,11 +42777,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -45022,11 +42794,6 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -45048,11 +42815,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -45072,11 +42834,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -45096,11 +42853,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -45120,11 +42872,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -45144,11 +42891,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -45168,11 +42910,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -45192,11 +42929,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -45216,11 +42948,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -45240,11 +42967,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -45264,11 +42986,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -45288,11 +43005,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -45312,11 +43024,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -45336,11 +43043,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -45360,11 +43062,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -45384,11 +43081,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -45408,11 +43100,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -45432,11 +43119,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -45456,11 +43138,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -45480,11 +43157,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -45502,11 +43174,6 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -46694,7 +44361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46728,11 +44395,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -46750,11 +44412,6 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -46776,11 +44433,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -46800,11 +44452,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -46824,11 +44471,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -46848,11 +44490,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -46872,11 +44509,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -46896,11 +44528,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -46920,11 +44547,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -46944,11 +44566,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -46968,11 +44585,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -46992,11 +44604,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -47016,11 +44623,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -47040,11 +44642,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -47064,11 +44661,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -47088,11 +44680,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -47112,11 +44699,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -47136,11 +44718,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -47160,11 +44737,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -47184,11 +44756,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -47208,11 +44775,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -47230,11 +44792,6 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -50678,7 +48235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50712,463 +48269,308 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17</v>
+        <v>271.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00057</v>
+        <v>0.4271</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>101.07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>271.1</v>
+        <v>277.09</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4271</v>
+        <v>0.4704</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>101.07</v>
+        <v>247.68</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1781</v>
+        <v>0.4302</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>277.09</v>
+        <v>18.44</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4704</v>
+        <v>0.0326</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>247.68</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4302</v>
+        <v>0.5712</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>18.44</v>
+        <v>890.97</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0326</v>
+        <v>0.5291</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
-        <v>86.51000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5712</v>
+        <v>0.3778</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B11" t="n">
-        <v>890.97</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5291</v>
+        <v>0.1171</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
-        <v>79.01000000000001</v>
+        <v>322.18</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3778</v>
+        <v>0.3699</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>44</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3058</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>179.32</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1171</v>
+        <v>0.4175</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B15" t="n">
-        <v>322.18</v>
+        <v>46.52</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3699</v>
+        <v>0.4968</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B16" t="n">
-        <v>53.23</v>
+        <v>84.39</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3058</v>
+        <v>0.1139</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B17" t="n">
-        <v>179.32</v>
+        <v>571.9299999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4175</v>
+        <v>0.5685</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>73</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>77</v>
-      </c>
-      <c r="B19" t="n">
-        <v>46.52</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4968</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>78</v>
-      </c>
-      <c r="B20" t="n">
-        <v>84.39</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1139</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>83</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>84</v>
-      </c>
-      <c r="B22" t="n">
-        <v>571.9299999999999</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5685</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -52028,7 +49430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52062,11 +49464,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -52086,59 +49483,54 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>98.59</v>
+        <v>100.56</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2262</v>
+        <v>0.1583</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>100.56</v>
+        <v>10.44</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1583</v>
+        <v>0.0177</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -52148,35 +49540,35 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>10.44</v>
+        <v>5.49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0177</v>
+        <v>0.0033</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -52186,73 +49578,73 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>42</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
-        <v>36.41</v>
+        <v>107.15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0645</v>
+        <v>0.3692</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>83</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B11" t="n">
-        <v>5.49</v>
+        <v>5.82</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0033</v>
+        <v>0.0057</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -52260,205 +49652,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>42</v>
-      </c>
-      <c r="B12" t="n">
-        <v>36.35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1738</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>44</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>46</v>
-      </c>
-      <c r="B14" t="n">
-        <v>107.15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3692</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>48</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>55</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>66</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>73</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>77</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>78</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>83</v>
-      </c>
-      <c r="B21" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0432</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>84</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -53899,7 +51092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53933,11 +51126,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -53957,59 +51145,54 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>98.59</v>
+        <v>100.56</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2123</v>
+        <v>0.1677</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Upland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>100.56</v>
+        <v>10.44</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1677</v>
+        <v>0.0175</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -54019,35 +51202,35 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>10.44</v>
+        <v>5.49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0175</v>
+        <v>0.0035</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -54057,73 +51240,73 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>42</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
-        <v>36.41</v>
+        <v>107.15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0625</v>
+        <v>0.3722</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No</t>
+        <v>83</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lowland</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B11" t="n">
-        <v>5.49</v>
+        <v>5.82</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0035</v>
+        <v>0.0058</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -54131,205 +51314,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>42</v>
-      </c>
-      <c r="B12" t="n">
-        <v>36.35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>44</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>46</v>
-      </c>
-      <c r="B14" t="n">
-        <v>107.15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3722</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>48</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>55</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>66</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>73</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>77</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>78</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>83</v>
-      </c>
-      <c r="B21" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0422</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>84</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Upland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -54801,7 +51785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54835,11 +51819,6 @@
           <t>Geographical Area Or Ecosystem</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>This Hazard May Affect The Element</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -54859,11 +51838,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -54881,11 +51855,6 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Upland</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -54907,11 +51876,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -54931,11 +51895,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -54955,11 +51914,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -54979,11 +51933,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -55003,11 +51952,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -55027,11 +51971,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -55051,11 +51990,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -55075,11 +52009,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -55099,11 +52028,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -55123,11 +52047,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -55147,11 +52066,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -55171,11 +52085,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -55195,11 +52104,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -55219,11 +52123,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -55243,11 +52142,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -55267,11 +52161,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -55291,11 +52180,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -55315,11 +52199,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -55339,11 +52218,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -55363,11 +52237,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -55387,11 +52256,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -55411,11 +52275,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -55435,11 +52294,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -55459,11 +52313,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -55483,11 +52332,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -55507,11 +52351,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -55531,11 +52370,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -55555,11 +52389,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -55579,11 +52408,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -55603,11 +52427,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -55627,11 +52446,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -55651,11 +52465,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -55675,11 +52484,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -55699,11 +52503,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -55723,11 +52522,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -55747,11 +52541,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -55771,11 +52560,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -55795,11 +52579,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -55819,11 +52598,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -55843,11 +52617,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -55867,11 +52636,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -55891,11 +52655,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -55915,11 +52674,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -55939,11 +52693,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -55963,11 +52712,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -55987,11 +52731,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -56011,11 +52750,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -56035,11 +52769,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -56059,11 +52788,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -56083,11 +52807,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -56107,11 +52826,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -56131,11 +52845,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -56155,11 +52864,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -56179,11 +52883,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -56203,11 +52902,6 @@
           <t>Lowland</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -56227,11 +52921,6 @@
           <t>Upland</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -56249,11 +52938,6 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Lowland</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
